--- a/datasets/itpeu_spd/evaluations/llamaindex/data/ITPEU_SPD_S001_01_GM_command-r_EM_embed-english-v3.0_C_512_K_3_RR_COHERE_N_10_2024-04-12.xlsx
+++ b/datasets/itpeu_spd/evaluations/llamaindex/data/ITPEU_SPD_S001_01_GM_command-r_EM_embed-english-v3.0_C_512_K_3_RR_COHERE_N_10_2024-04-12.xlsx
@@ -555,14 +555,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to the information provided, coverage of a disabled child extends beyond the age of 26 if they are incapable of self-support due to their disability, and are dependent on the employee-parent for support. Proof of the child's incapacity may be required by the Board of Trustees. Since your daughter is 28 years old, she would not be considered a covered family member based on the information provided.</t>
+          <t>According to the information provided, coverage of a disabled child extends beyond the age of 26 if they are totally permanently disabled. However, the Fund has the right to request proof of your daughter's incapacity, which must be provided no later than 31 days after she turned 26. As your daughter is 28, it seems likely that she would no longer be eligible for coverage.</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -636,14 +636,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes, treatment for lymphoma is covered. According to the information provided, both Hodgkin's lymphoma and non-Hodgkin's lymphoma are eligible for coverage. Chemotherapy and related courses of treatment for transplants supporting the lymphoma treatment are also included. However, the treatment must be medically appropriate and meet the criteria established by the Plan.</t>
+          <t>Yes, treatment for some types of lymphoma appears to be covered. According to the information provided, Hodgkin's lymphoma and Non-Hodgkin's lymphoma are both eligible for coverage if they fall into specific stages. Additionally, lymphoma is also covered in the context of homogenic/allogenic or syngeneic hematopoietic stem cell transplants, provided certain conditions are met.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -717,16 +717,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes. According to the provided context, the ITPEU Health and Welfare Plan states that immunizations for children are covered.
-Page 12 of the ITPEU_SPD.pdf states:
-&gt; Immunizations for children and adults.
-...
-WOMEN'S HEALTH CARE
-This indicates that your son's flu vaccine would be covered by the plan.</t>
+          <t>Yes, your son's flu vaccine is covered. According to the ITPEU Health and Welfare Plan, immunizations for children up to the age of 18 are covered, including the influenza (flu) vaccine. Page 13 of the plan outlines that "Preventive physical exams" and "Age-appropriate screening tests" are included in the coverage. Additionally, the vaccine administration would count as a covered expense under the plan's provisions.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -803,11 +798,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home dialysis treatment is explicitly mentioned as not being covered in your plan. The coverage exclusions specifically call out "dialysis treatment" and "purchase or rental of dialysis equipment."</t>
+          <t>According to the information provided, home dialysis treatment is not covered in your plan. Dialysis treatment, whether at home or in-patient, appears on the list of medical expenses not covered by the plan.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0.6666666666666666</v>
@@ -884,8 +879,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>According to the information provided, a reduction in the weekly work schedule to below Level IV (e.g., from 35 to 25 hours per week) would result in a drop to a lower Benefit Classification Level and constitute a Qualifying Event.
-This would mean that you and your Covered Family Members could maintain your medical, vision, dental, and prescription drug benefits at the Classification Level you held prior to the change in your work schedule, but it would be at your own expense.</t>
+          <t>According to the ITPEU Health and Welfare Plan, a reduction in an employee's weekly work schedule resulting in a drop to a lower Benefit Classification Level will mean that the employee and their Covered Family Members can maintain their medical, vision, dental and prescription drug benefits at the Benefit Classification Level they held prior to the change in the employee's weekly work schedule. These benefits would be at the employee's own expense. So, yes, you and your family are still covered, but you will need to pay for the continued benefits yourself.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -966,14 +960,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No, the plan does not cover treatment for mental illness. According to the definition of "Mental Health Disorder" provided in the context information, mental illnesses are included in the term. However, coverage is explicitly excluded for "care for mental illness including drug addiction, chronic brain syndromes and alcoholism, and no specific medical conditions exist that require care in a Skilled Nursing Facility".</t>
+          <t>According to the defined terms in the provided context, the plan does not cover treatment for mental illness.
+The term "Mental Health Disorder" includes mental disorders, mental illnesses, and psychiatric conditions but specifically excludes any conditions related to drug, alcohol, or chemical dependency.
+ elsewhere in the text, it is stated that care for mental illness is not covered. It is listed among the exclusions along with drug addiction, chronic brain syndromes, and alcoholism.</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1099,7 +1095,7 @@
 or death.  Coverage of all Covered Family Members of an Employee terminates automatically as ofthe date of death of the Employee. 
 2.06 Time That Claim is Incurred. The Plan shall pay benefits for eligible Employees and their
 eligible Covered Family Members for all claims incurred during a period of eligibility.
-**Metadata:** {'page_label': '5', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '5', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1128,7 +1124,7 @@
 D. The term “Covered Child” shall include all persons specified in Subsections B and C hereof, and
 any step-child of an Employee for whom coverage was provided by the Plan prior to December 31,
 2010.
-**Metadata:** {'page_label': '2', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '2', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1158,7 +1154,7 @@
 the Fund. Nor does it apply to any medical expenses specifically excluded from coverage in other
 portions of this Plan Document.
 9.02 Medical Benefits.
-**Metadata:** {'page_label': '8', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '8', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1207,7 +1203,7 @@
 Metastatic breast cancer that (a) has not been previously treated with systemic therapy, (b) iscurrently responsive to primary systemic therapy, or (c) has relapsed following response to first-
 line treatment;
 Newly diagnosed or responsive multiple myeloma, previously untreated disease, those in a
-**Metadata:** {'page_label': '10', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '10', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1249,16 +1245,22 @@
 Pre-certification RequirementAll transplant procedures must be pre-certified for type of transplant and be Medically Appropriate
 according to criteria established by the Plan.
 11.
-**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-74
-**Similarity:** 0.02859836
-**Text:** Thisexclusion includes, but is not limited to, surgery to correct gynecomastia and breast augmentation
+**Node ID:** node-78
+**Similarity:** 0.10650459
+**Text:** Ambulance transportation from the Hospital to the
+home is not covered.
+17. Services provided by a rest home, a home for the aged, a nursing home or any similar facility.
+18. Hearing Aids
+19. Cosmetic Surgery, reconstructive surgery, pharmacological services, nutritional regimens or
+other services for beautification, or treatment relating to the consequences of, or as a result of
+Cosmetic Surgery, unless treatment relating to such consequences is medically necessary. Thisexclusion includes, but is not limited to, surgery to correct gynecomastia and breast augmentation
 procedures, and otoplasties. Reduction mammoplasty and services for the correction of asymmetry,
 except when determined to be medically necessary, are not covered.
 • This exclusion does not apply to surgery to restore function if any body area has been altered by
@@ -1272,15 +1274,8 @@
 treatment of bulimia, anorexia or other eating disorders which consist primarily of behavior
 modification, diet and weight monitoring and education. Any services or supplies that involve weight
 reduction as the main method of treatment, including medical or psychiatric care or counseling.
-Weight loss programs, nutritional supplements, appetite suppressants, and supplies of a similarnature. Procedures including but not limited to liposuction, gastric balloons, jejunal bypasses, and
-wiring of the jaw.
-22. Surgical or medical treatment or study related to the modification of sex (transsexualism) or
-medical or surgical services or supplies for treatment of sexual dysfunctions or inadequacies,
-including treatment for impotency (except male organic erectile dysfunction).
-23. Transportation provided by other than a state licensed professional ambulance service, and
-ambulance services other than in a medical emergency.
-24.
-**Metadata:** {'page_label': '32', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+Weight loss programs, nutritional supplements, appetite suppressants, and supplies of a similarnature.
+**Metadata:** {'page_label': '32', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1306,7 +1301,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">**Node ID:** node-21
-**Similarity:** 0.5450436
+**Similarity:** 0.5428027
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM](a) Deductible.  Each Participant shall be responsible for a Deductible as defined at Section 1.05.
 This Deductible applies to each Participant during a calendar year, regardless of the number of
@@ -1324,32 +1319,16 @@
 Pocket Maximum has been met or the Participant’s maximum calendar year benefit has been paid,whichever comes first. In the event the Participant’s Out Of Pocket Maximum has been met and theMaximum Medical Benefit has not been fully paid, the balance of all covered medical expenses for
 the year will be paid at 100% up to the Maximum Medical Benefit as specified in the pertinent
 Schedule of Benefits.
-(e) Amount of Maximum Medical Benefit.
-**Metadata:** {'page_label': '9', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '9', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-29
-**Similarity:** 0.3477586
-**Text:** 13.  Hospital Emergency Room Services : Charges for hospital emergency room care in
-connection with a “Medical Emergency”. For purposes of this Section 9.03(b)(18) the term “Medical
-Emergency” shall mean “a condition of recent onset and sufficient severity including, but not limited
-to severe pain, that would lead a prudent lay person, possessing an average knowledge of medicine
-and health, to believe that his or her condition, sickness or injury is of such a nature that failure toobtain immediate medical care could place his or her life in danger or cause serious harm”.
-14. Hearing Aids  - A hearing aid benefit shall be provided for Employees and their Dependents,
-whose contribution rates are $3.24 per hour and above. Your schedule of benefits specifies the
-maximum dollar amount for each Hearing Aid benefit that will be paid by the Fund under this
-Section. In no event shall the Fund pay more than such maximum amount for any Employee orDependent in any 24 month period. 
-(c) 
-Preventive Health Services
-Effective July 1, 2012, the Plan will pay 100% of the cost of all "Preventive Health
-Services" required by the Affordable Care Act when such services are provided by Network
-Healthcare Providers.  Such services include well-care baby visits, preventive care
-physical examinations for adults, screening tests for children and adults, and
-immunizations for children and adults.  Set forth below is an overview of the types of
+**Node ID:** node-30
+**Similarity:** 0.5255667
+**Text:** Set forth below is an overview of the types of
 preventive services which are covered.  If you have questions as to whether a particular
 service is a "Preventive Health Service" required to be provided by the Plan without cost
 to you under the Affordable Care Act, please call the Claims Administrator at 1-877-331-
@@ -1357,7 +1336,7 @@
 CHILD PREVENTIVE CARE (Birth to 18 years)
 Preventive physical exams including well babyADULT PREVENTIVE CARE (19 years and
 older)
-**Metadata:** {'page_label': '12', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '12', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1365,33 +1344,31 @@
         <is>
           <t xml:space="preserve">
 **Node ID:** node-31
-**Similarity:** 0.14270914
-**Text:** barium enema, flexible
-sigmoidoscopy, screening colonoscopy and CT
-colonography (as appropriate)
-- Aortic aneurysm screening (men)
-- Screenings during pregnancy (including but not
-limited to, hepatitis, asymptomatic bacteriuria,
-Rh incompatibility, syphilis, iron deficiency
-anemia, gonorrhea, chlamydia and HIV)
-- Intervention services (includes counseling and
-education):
-° Screening and counseling for obesity
-° Genetic counseling for women with a family
-history
-of breast or ovarian cancer
-° Behavioral counseling to promote a healthy diet
-° Primary care intervention to promote
-breastfeeding
-° Counseling related to aspirin use for the
-prevention
-of cardiovascular disease (does not include
-coverage
-for aspirin)
-° Screening and behavioral counseling related to
-tobacco use
-° Screening and behavioral counseling related to
-alcohol misuse 
+**Similarity:** 0.3907664
+**Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
+https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]care
+Age-appropriate screening tests including:
+- Newborn screenings
+- Vision screening
+- Hearing screening
+- Developmental and behavioral assessments
+- Oral health assessment
+- Screening for lead exposure
+- Hemoglobin or hematocrit (blood count)
+- Blood pressure
+- Height, weight and body mass index (BMI)\
+- Cholesterol and lipid level screening
+- Screening for depression
+- Screening and counseling for obesity
+- Behavioral counseling to promote a healthy diet
+- Screening for sexually transmitted infections
+- Pelvic exam and Pap test, including screening
+for
+cervical cancer
+-urinalysis
+-tuberculin tests
+-blood tests including hematocrit, hemoglobin
+and screening for sickle hemoglobinopathy
 Immunizations:
 - Hepatitis A
 - Hepatitis B
@@ -1400,11 +1377,25 @@
 - Influenza (flu)
 - Pneumococcal (pneumonia)
 - Human Papillomavirus (HPV)
+- Haemophilus Influenza type b (Hib)
+- Polio
 - Measles, Mumps, Rubella (MMR)
 - Meningococcal (meningitis)
-- Zoster (shingles)
-WOMEN'S HEALTH CARE
-**Metadata:** {'page_label': '13', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+- RotavirusPreventive physical exams
+Age-appropriate screening tests including:
+- Eye chart vision screening
+- Hearing screening
+- Cholesterol and lipid level screening
+- Blood pressure
+- Height, weight and BMI
+- Screening for depression
+- Diabetes screening
+- Prostate cancer screening including digital rectal
+exam and PSAtest
+- Breast cancer screening, including exam and
+mammography
+- Pelvic exam and Pap test,
+**Metadata:** {'page_label': '13', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1429,7 +1420,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">**Node ID:** node-34
+          <t xml:space="preserve">**Node ID:** node-35
 **Similarity:** 0.938576
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]• A Member must be essentially confined at home.
@@ -1457,14 +1448,14 @@
 • Dietician services.• Maintenance therapy.• Dialysis treatment.
 • Purchase or rental of dialysis equipment.
 9.06 Medical Expenses Not Covered .
-**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-35
+**Node ID:** node-36
 **Similarity:** 0.8423451
 **Text:** • Routine care and/or examination of a newborn child.
 • Dietician services.• Maintenance therapy.• Dialysis treatment.
@@ -1481,7 +1472,7 @@
 description of the out-patient services which require Pre-Certification under the Plan is set forth in
 the Appendix to the Summary Plan Description entitled " Out-Patient Services Requiring Pre-
 Certification ".
-**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '15', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1523,7 +1514,7 @@
 Pre-certification RequirementAll transplant procedures must be pre-certified for type of transplant and be Medically Appropriate
 according to criteria established by the Plan.
 11.
-**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '11', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1548,8 +1539,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">**Node ID:** node-45
-**Similarity:** 0.97919554
+          <t xml:space="preserve">**Node ID:** node-47
+**Similarity:** 0.98148894
 **Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
 https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM](c) A spouse is eligible, at his or her own expense, for continuation of medical, vision, dental and
 prescription drug benefits in the event of divorce or separation from a covered Employee.
@@ -1569,17 +1560,16 @@
 benefits:
 (1) Termination of Employment;(2) Death of the Employee;
 (3) Divorce or Legal Separation;
-(4) Loss of Covered Child Status;(5) Reduction in weekly work schedule resulting in a drop to lower Benefit Classification Level.(6) Exhaustion of leave under the Federal Family and Medical Leave Act without a return to
-employment.
-**Metadata:** {'page_label': '20', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+(4) Loss of Covered Child Status;(5) Reduction in weekly work schedule resulting in a drop to lower Benefit Classification Level.
+**Metadata:** {'page_label': '20', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-79
-**Similarity:** 0.23563565
+**Node ID:** node-83
+**Similarity:** 0.23598762
 **Text:** 62. Charges for cosmetic corrective eye surgery.
 63. Treatment of a Mental Health Disorder.
 SECTION 24. FAMILY AND MEDICAL LEAVE
@@ -1601,7 +1591,7 @@
 the FMLA and not by the provisions of the Plan.
 24.02 Extension of Coverage in the Event an Employee is FMLA Eligible .
 If an Employee is eligible for and elects to take Family and Medical Leave under the FMLA by reason
-**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '34', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1609,7 +1599,7 @@
         <is>
           <t xml:space="preserve">
 **Node ID:** node-20
-**Similarity:** 0.23109324
+**Similarity:** 0.23074637
 **Text:** 8.02 Amount of Benefit. The amount of the weekly benefit payable hereunder shall be the benefit
 for each Classification Level specified in the Schedule of Benefits.8.03 Waiting Period. Eligibility for weekly accident and sickness benefit commences on the first day
 of disability if the Employee is disabled as a result of an accident and on the fourth day of disability if
@@ -1631,7 +1621,7 @@
 the Fund. Nor does it apply to any medical expenses specifically excluded from coverage in other
 portions of this Plan Document.
 9.02 Medical Benefits.
-**Metadata:** {'page_label': '8', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '8', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1657,7 +1647,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">**Node ID:** node-6
-**Similarity:** 0.96570605
+**Similarity:** 0.9641193
 **Text:** 1.17 Mental Health Disorder. The term “Mental Health Disorder” includes mental disorders,
 mental illnesses, psychiatric illnesses, mental conditions, and psychiatric conditions. This includes,
 but is not limited to psychoses, neurotic disorders, schizophrenic disorders, affective disorders,personality disorders and psychological or behavioral abnormalities associated with transient or
@@ -1679,20 +1669,47 @@
 and any "Covered Family Member" as defined at Section 1.06 hereof.
 1.22 Physician. The term "Physician" means a licensed medical practitioner, including a clinical
 psychologist, who is practicing within the scope of his or her license and who is licensed to prescribe
-and administer drugs or to perform surgery. It will also include any other licensed medical
-practitioner whose services are required to be covered by law in the locality where he or shepractices provided he or she is:
-Operating within the scope of his or her license; and
-Performing a service for which benefits are provided under this Plan when performed by aPhysician.
-1.23 Plan.
-**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+and administer drugs or to perform surgery.
+**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">
-**Node ID:** node-33
-**Similarity:** 0.88483775
+**Node ID:** node-5
+**Similarity:** 0.9285385
+**Text:** ITPEU Benefits &gt; Health &amp; Welfare Plan &gt; The Health and Welfare Plan &gt; Part III: Plan Document
+https://itpeubenefits.org/Health-Welfare-Plan/The-Health-and-Welfare-Plan/Part-III-Plan-Document[4/3/2024 1:33:35 PM]for diagnosis and major surgery and which is not primarily a clinic, nursing, rest or convalescence
+home, or similar establishment. A psychiatric hospital duly licensed by the State in question shall be
+considered a hospital.
+1.13 Incurred.  A claim shall be considered “incurred” under the following circumstances:
+A. A claim for hospital benefits is incurred on the date the Employee or Covered Family Member
+enters a hospital;
+B. A claim for weekly accident and sickness benefit is incurred on the first date of disability if it is
+caused by an accident, or on the fourth day of disability if it is brought about by illness;
+C. A claim for death benefits or accidental death or dismemberment benefits is incurred on the date
+of death or dismemberment;
+D. Any other claim for benefits is incurred on the date the service in question is rendered.
+1.14 In-Network Expenses. The terms “In-Network Expenses” or “PPO Network Expenses” refer to
+all medical expenses incurred as a result of treatment or care by Hospitals and Health Care Providers
+who are affiliated with the Network of Health Care Providers offered by the Preferred ProviderOrganization with whom the Plan has contracted.
+1.15 Installation.  The term "Installation" shall mean allfacilities covered by a Collective Bargaining
+Agreement (and Service Contract when pertinent) regardless of geographical location.1.16 Maximum Medical Benefit. The term “Maximum Medical Benefit” or “Maximum Major Medical
+Benefit” shall refer to the maximum amount that the Fund shall pay each calendar year for combined
+In-Network and Out-of-Network medical benefits per Participant as specified in the Schedule of
+Benefits for such Participant.
+ 1.17 Mental Health Disorder. The term “Mental Health Disorder” includes mental disorders,
+mental illnesses, psychiatric illnesses, mental conditions, and psychiatric conditions.
+**Metadata:** {'page_label': '3', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+**Node ID:** node-34
+**Similarity:** 0.8844391
 **Text:** This benefit is available only if the patient requires a Physician’s continuous care and 24-hour-a-day
 nursing care. Benefits will not be provided when:
 • A Member reaches the maximum level of recovery possible and no longer requires other than
@@ -1711,38 +1728,7 @@
 with the diagnosis.
 Note: Covered Services available under Home Health Care do NOT reduce Outpatient benefits
 available under the Physical Therapy section shown in this Plan.
-**Metadata:** {'page_label': '14', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-**Node ID:** node-74
-**Similarity:** 0.08819004
-**Text:** Thisexclusion includes, but is not limited to, surgery to correct gynecomastia and breast augmentation
-procedures, and otoplasties. Reduction mammoplasty and services for the correction of asymmetry,
-except when determined to be medically necessary, are not covered.
-• This exclusion does not apply to surgery to restore function if any body area has been altered by
-disease, trauma, congenital/developmental anomalies, or previous therapeutic processes. Thisexclusion does not apply to surgery to correct the results of injuries when performed within 2 years
-of the event causing the impairment, or as a continuation of a staged reconstruction procedure, or
-congenital defects necessary to restore normal bodily functions, including but not limited to, cleft lip
-and cleft palate.
-• This exclusion does not apply to Breast Reconstructive Surgery.
-20. Complications of non-covered procedures are not covered.21. Any services or supplies for the treatment of obesity, including but not limited to, weight
-reduction, medical care or Prescription Drugs, nutritional counseling or dietary control. Nutritionalsupplements; services, supplies and/or nutritional sustenance products (food) related to enteralfeeding except when it’s the sole means of nutrition. Food supplements. Services of Inpatient
-treatment of bulimia, anorexia or other eating disorders which consist primarily of behavior
-modification, diet and weight monitoring and education. Any services or supplies that involve weight
-reduction as the main method of treatment, including medical or psychiatric care or counseling.
-Weight loss programs, nutritional supplements, appetite suppressants, and supplies of a similarnature. Procedures including but not limited to liposuction, gastric balloons, jejunal bypasses, and
-wiring of the jaw.
-22. Surgical or medical treatment or study related to the modification of sex (transsexualism) or
-medical or surgical services or supplies for treatment of sexual dysfunctions or inadequacies,
-including treatment for impotency (except male organic erectile dysfunction).
-23. Transportation provided by other than a state licensed professional ambulance service, and
-ambulance services other than in a medical emergency.
-24.
-**Metadata:** {'page_label': '32', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'f:\\LLamaIndexRAG\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-03'}
+**Metadata:** {'page_label': '14', 'file_name': 'ITPEU_SPD.pdf', 'file_path': 'c:\\Users\\shthanka.ORADEV\\Oracle Content\\Gen AI\\rag_tester_llidx\\datasets\\itpeu_spd\\files\\ITPEU_SPD.pdf', 'file_type': 'application/pdf', 'file_size': 399978, 'creation_date': '2024-04-12', 'last_modified_date': '2024-04-12'}
 </t>
         </is>
       </c>
@@ -1796,10 +1782,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>4.666666666666666</v>
+        <v>5.083333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -1826,10 +1812,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.25</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1894,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to the information provided, coverage of a disabled child extends beyond the age of 26 if they are incapable of self-support due to their disability, and are dependent on the employee-parent for support. Proof of the child's incapacity may be required by the Board of Trustees. Since your daughter is 28 years old, she would not be considered a covered family member based on the information provided.</t>
+          <t>According to the information provided, coverage of a disabled child extends beyond the age of 26 if they are totally permanently disabled. However, the Fund has the right to request proof of your daughter's incapacity, which must be provided no later than 31 days after she turned 26. As your daughter is 28, it seems likely that she would no longer be eligible for coverage.</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -1916,7 +1902,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The generated answer is relevant to the user's query about coverage for their disabled daughter but contains a critical mistake regarding the eligibility criteria. It incorrectly suggests that the daughter would not be considered a covered family member due to her age, contradicting the reference answer which states that she can be covered if her incapacity began before the age of 26 and she depends on the parent for support.</t>
+          <t>The generated answer is relevant to the user's query about coverage for their disabled daughter but contains significant inaccuracies and omissions compared to the reference answer. It incorrectly suggests that the daughter would likely no longer be eligible for coverage due to her age, whereas the reference answer clarifies that she can remain covered if her incapacity began before the age of 26 and she depends on the user for support, with ongoing proof of incapacity potentially required. This misunderstanding could lead to confusion or misinformation about the daughter's eligibility for coverage.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -1941,15 +1927,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes, treatment for lymphoma is covered. According to the information provided, both Hodgkin's lymphoma and non-Hodgkin's lymphoma are eligible for coverage. Chemotherapy and related courses of treatment for transplants supporting the lymphoma treatment are also included. However, the treatment must be medically appropriate and meet the criteria established by the Plan.</t>
+          <t>Yes, treatment for some types of lymphoma appears to be covered. According to the information provided, Hodgkin's lymphoma and Non-Hodgkin's lymphoma are both eligible for coverage if they fall into specific stages. Additionally, lymphoma is also covered in the context of homogenic/allogenic or syngeneic hematopoietic stem cell transplants, provided certain conditions are met.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant and correct, closely aligning with the reference answer. It accurately states that lymphoma treatment is covered, including chemotherapy and transplants, with the condition that treatments must be medically appropriate and meet the Plan's criteria. The slight deduction is due to the omission of specific details about the type of transplants covered (e.g., autologous bone marrow transplants) and the specific conditions under which they are covered, which were mentioned in the reference answer.</t>
+          <t>The generated answer is relevant and mostly correct, aligning well with the reference answer's information about coverage for lymphoma treatment under a specific health plan. It correctly identifies that treatments for certain types of lymphoma (Hodgkin's and Non-Hodgkin's) are covered, and mentions the eligibility for coverage of specific transplant types, which is in line with the reference answer's mention of autologous bone marrow transplants. However, it slightly lacks the specificity and detail provided in the reference answer, such as the specific stages of lymphoma covered and the requirement for prior approval, which prevents a perfect score.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -1974,20 +1960,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes. According to the provided context, the ITPEU Health and Welfare Plan states that immunizations for children are covered.
-Page 12 of the ITPEU_SPD.pdf states:
-&gt; Immunizations for children and adults.
-...
-WOMEN'S HEALTH CARE
-This indicates that your son's flu vaccine would be covered by the plan.</t>
+          <t>Yes, your son's flu vaccine is covered. According to the ITPEU Health and Welfare Plan, immunizations for children up to the age of 18 are covered, including the influenza (flu) vaccine. Page 13 of the plan outlines that "Preventive physical exams" and "Age-appropriate screening tests" are included in the coverage. Additionally, the vaccine administration would count as a covered expense under the plan's provisions.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and mostly correct, providing specific information from a document that supports the claim that the son's flu vaccine is covered. However, it lacks the comprehensive detail found in the reference answer, such as mentioning the coverage of 100% of the cost for "Preventive Health Services" and the inclusion of services required by the Affordable Care Act, which would have made the response more complete.</t>
+          <t>The generated answer is relevant and fully correct, providing specific information about the coverage of flu vaccines under the ITPEU Health and Welfare Plan, including the age limit and the type of services covered. It aligns well with the reference answer, offering a detailed explanation that directly addresses the user's query.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -2012,15 +1993,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home dialysis treatment is explicitly mentioned as not being covered in your plan. The coverage exclusions specifically call out "dialysis treatment" and "purchase or rental of dialysis equipment."</t>
+          <t>According to the information provided, home dialysis treatment is not covered in your plan. Dialysis treatment, whether at home or in-patient, appears on the list of medical expenses not covered by the plan.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and fully correct, providing a clear and concise response to the user query based on the reference answer. It accurately reflects the information about the coverage of home dialysis treatment and equipment, aligning with the details given in the reference answer.</t>
+          <t>The generated answer is relevant and correct, closely aligning with the reference answer by stating that home dialysis treatment is not covered by the plan. However, it lacks the specific detail about the ITPEU Health and Welfare Plan and the exclusion of dialysis equipment purchase or rental, which makes it slightly less informative than the reference answer.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -2045,8 +2026,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>According to the information provided, a reduction in the weekly work schedule to below Level IV (e.g., from 35 to 25 hours per week) would result in a drop to a lower Benefit Classification Level and constitute a Qualifying Event.
-This would mean that you and your Covered Family Members could maintain your medical, vision, dental, and prescription drug benefits at the Classification Level you held prior to the change in your work schedule, but it would be at your own expense.</t>
+          <t>According to the ITPEU Health and Welfare Plan, a reduction in an employee's weekly work schedule resulting in a drop to a lower Benefit Classification Level will mean that the employee and their Covered Family Members can maintain their medical, vision, dental and prescription drug benefits at the Benefit Classification Level they held prior to the change in the employee's weekly work schedule. These benefits would be at the employee's own expense. So, yes, you and your family are still covered, but you will need to pay for the continued benefits yourself.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -2054,7 +2034,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The generated answer is highly relevant and correct in relation to the user query. It succinctly explains the impact of a reduction in work hours on benefit coverage under the ITPEU Health and Welfare Plan, mirroring the essential information provided in the reference answer. It clearly states that despite a decrease in work hours, the individual and their family can maintain their current level of benefits if they choose to cover the additional costs.</t>
+          <t>The generated answer is highly relevant to the user query and correctly explains the impact of a reduced work schedule on benefit coverage under the ITPEU Health and Welfare Plan. It concisely states that the employee and their family can maintain their current level of benefits if they choose to pay for them, directly addressing the user's concern.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2079,7 +2059,9 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No, the plan does not cover treatment for mental illness. According to the definition of "Mental Health Disorder" provided in the context information, mental illnesses are included in the term. However, coverage is explicitly excluded for "care for mental illness including drug addiction, chronic brain syndromes and alcoholism, and no specific medical conditions exist that require care in a Skilled Nursing Facility".</t>
+          <t>According to the defined terms in the provided context, the plan does not cover treatment for mental illness.
+The term "Mental Health Disorder" includes mental disorders, mental illnesses, and psychiatric conditions but specifically excludes any conditions related to drug, alcohol, or chemical dependency.
+ elsewhere in the text, it is stated that care for mental illness is not covered. It is listed among the exclusions along with drug addiction, chronic brain syndromes, and alcoholism.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -2087,7 +2069,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The generated answer is relevant and fully correct, providing specific details about the types of mental illnesses not covered by the plan, which aligns well with the reference answer's information about the exclusion of mental health disorder treatments.</t>
+          <t>The generated answer is relevant and fully correct, providing a clear and detailed explanation that aligns with the reference answer's information about the exclusion of mental health disorder treatments from the plan. It also adds valuable context regarding what is encompassed by the term "Mental Health Disorder" and mentions other exclusions, enhancing the completeness of the response.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2168,15 +2150,15 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>According to the information provided, coverage of a disabled child extends beyond the age of 26 if they are incapable of self-support due to their disability, and are dependent on the employee-parent for support. Proof of the child's incapacity may be required by the Board of Trustees. Since your daughter is 28 years old, she would not be considered a covered family member based on the information provided.</t>
+          <t>According to the information provided, coverage of a disabled child extends beyond the age of 26 if they are totally permanently disabled. However, the Fund has the right to request proof of your daughter's incapacity, which must be provided no later than 31 days after she turned 26. As your daughter is 28, it seems likely that she would no longer be eligible for coverage.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>The score is 0.75 because the actual output incorrectly suggests that a 28-year-old daughter would not be considered a covered family member, contradicting the retrieval context which indicates that coverage for a disabled child over 26 years old would continue if they are still considered totally permanently disabled.</t>
+          <t>The score is 1.00 because there are no contradictions, indicating a perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy and consistency!</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -2201,15 +2183,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes, treatment for lymphoma is covered. According to the information provided, both Hodgkin's lymphoma and non-Hodgkin's lymphoma are eligible for coverage. Chemotherapy and related courses of treatment for transplants supporting the lymphoma treatment are also included. However, the treatment must be medically appropriate and meet the criteria established by the Plan.</t>
+          <t>Yes, treatment for some types of lymphoma appears to be covered. According to the information provided, Hodgkin's lymphoma and Non-Hodgkin's lymphoma are both eligible for coverage if they fall into specific stages. Additionally, lymphoma is also covered in the context of homogenic/allogenic or syngeneic hematopoietic stem cell transplants, provided certain conditions are met.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The score is 1.00 because the actual output perfectly aligns with the information presented in the retrieval context, with no contradictions identified. Great job on maintaining accuracy and faithfulness!</t>
+          <t>The score is 0.75 because the actual output inaccurately claims that lymphoma coverage includes homogenic/allogenic or syngeneic hematopoietic stem cell transplants, while the original context only mentions eligibility for autologous bone marrow transplants for certain conditions, without addressing these other transplant types.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -2234,12 +2216,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes. According to the provided context, the ITPEU Health and Welfare Plan states that immunizations for children are covered.
-Page 12 of the ITPEU_SPD.pdf states:
-&gt; Immunizations for children and adults.
-...
-WOMEN'S HEALTH CARE
-This indicates that your son's flu vaccine would be covered by the plan.</t>
+          <t>Yes, your son's flu vaccine is covered. According to the ITPEU Health and Welfare Plan, immunizations for children up to the age of 18 are covered, including the influenza (flu) vaccine. Page 13 of the plan outlines that "Preventive physical exams" and "Age-appropriate screening tests" are included in the coverage. Additionally, the vaccine administration would count as a covered expense under the plan's provisions.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -2247,7 +2224,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The score is 1.00 because the actual output perfectly aligns with the retrieval context, showcasing a high level of accuracy and reliability without any contradictions. Great job!</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the retrieval context, with no contradictions present. Great job!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -2272,7 +2249,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home dialysis treatment is explicitly mentioned as not being covered in your plan. The coverage exclusions specifically call out "dialysis treatment" and "purchase or rental of dialysis equipment."</t>
+          <t>According to the information provided, home dialysis treatment is not covered in your plan. Dialysis treatment, whether at home or in-patient, appears on the list of medical expenses not covered by the plan.</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -2280,7 +2257,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>The score is 0.67 because the actual output incorrectly states that the purchase or rental of dialysis equipment is excluded, whereas the retrieval context only specifies that dialysis treatment is not covered, not mentioning equipment.</t>
+          <t>The score is 0.67 because the actual output inaccurately claims that home dialysis treatment is not covered, contradicting the retrieval context which states that dialysis treatment is not covered in general, without specifying the location of treatment.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -2305,8 +2282,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>According to the information provided, a reduction in the weekly work schedule to below Level IV (e.g., from 35 to 25 hours per week) would result in a drop to a lower Benefit Classification Level and constitute a Qualifying Event.
-This would mean that you and your Covered Family Members could maintain your medical, vision, dental, and prescription drug benefits at the Classification Level you held prior to the change in your work schedule, but it would be at your own expense.</t>
+          <t>According to the ITPEU Health and Welfare Plan, a reduction in an employee's weekly work schedule resulting in a drop to a lower Benefit Classification Level will mean that the employee and their Covered Family Members can maintain their medical, vision, dental and prescription drug benefits at the Benefit Classification Level they held prior to the change in the employee's weekly work schedule. These benefits would be at the employee's own expense. So, yes, you and your family are still covered, but you will need to pay for the continued benefits yourself.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -2314,7 +2290,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>The score is 1.00 because there are no contradictions, indicating perfect alignment between the actual output and the retrieval context. Great job on maintaining accuracy!</t>
+          <t>The score is 1.00 because the actual output perfectly aligns with the information provided in the retrieval context, showcasing an impeccable level of faithfulness without any contradictions.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -2339,15 +2315,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>No, the plan does not cover treatment for mental illness. According to the definition of "Mental Health Disorder" provided in the context information, mental illnesses are included in the term. However, coverage is explicitly excluded for "care for mental illness including drug addiction, chronic brain syndromes and alcoholism, and no specific medical conditions exist that require care in a Skilled Nursing Facility".</t>
+          <t>According to the defined terms in the provided context, the plan does not cover treatment for mental illness.
+The term "Mental Health Disorder" includes mental disorders, mental illnesses, and psychiatric conditions but specifically excludes any conditions related to drug, alcohol, or chemical dependency.
+ elsewhere in the text, it is stated that care for mental illness is not covered. It is listed among the exclusions along with drug addiction, chronic brain syndromes, and alcoholism.</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>The score is 0.25 because the actual output contains several inaccuracies: it incorrectly states that all treatments for mental illness are not covered, contrary to the context suggesting coverage is possible for certain conditions. It also falsely claims coverage is excluded for conditions like drug addiction and alcoholism, which the context clarifies are not categorized under mental illness for the plan's purposes. Additionally, it wrongly asserts that no medical conditions justify care in a Skilled Nursing Facility, overlooking the context's specification that such care is covered under certain medical requirements. These contradictions significantly undermine the faithfulness of the actual output to the provided context.</t>
+          <t>The score is 0.67 because the actual output inaccurately implies that treatment for mental illness is not covered, contradicting the retrieval context that does not make such a claim but merely specifies what is included under 'Mental Health Disorder' and what conditions are excluded.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -2390,10 +2368,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>33403</v>
+        <v>35045</v>
       </c>
       <c r="B2" t="n">
-        <v>10773</v>
+        <v>10850</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
